--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB3101D-CDC2-4FCD-8C29-D436E5988C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755E0AA4-AF22-4976-875B-C1D82FD3DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>uu diem</t>
   </si>
@@ -91,6 +91,36 @@
   </si>
   <si>
     <t>Hiệu suất kém: IE thường chạy chậm hơn so với các trình duyệt hiện đại khác và có khả năng ảnh hưởng đến trải nghiệm người dùng.</t>
+  </si>
+  <si>
+    <t>Dễ học và sử dụng: VBScript là ngôn ngữ đơn giản và dễ học, đặc biệt là đối với những người làm việc trong môi trường Windows.</t>
+  </si>
+  <si>
+    <t>Sẵn có trong Windows: VBScript và Windows Script Host (WSH) thường đã được cài đặt sẵn trên hầu hết các máy tính Windows, do đó không cần phải cài đặt thêm phần mềm.</t>
+  </si>
+  <si>
+    <t>Tích hợp hệ thống: VBScript có thể dễ dàng tích hợp vào các tác vụ hệ thống Windows khác nhau như quản lý tệp, đối tượng Active Directory và các dịch vụ hệ thống khác.</t>
+  </si>
+  <si>
+    <t>Thao tác với IE COM object: Windows Script Host cho phép bạn tương tác trực tiếp với trình duyệt IE thông qua COM object, giúp bạn thực hiện các tác vụ trên trình duyệt.</t>
+  </si>
+  <si>
+    <t>Ưu điểm và nhược điểm khi tự động hóa trên trình duyệt IE với Vbscript và Windows Script</t>
+  </si>
+  <si>
+    <t>Khả năng tương thích hạn chế: Trình duyệt IE không còn được phát triển và không hỗ trợ nhiều tiêu chuẩn web mới như các trình duyệt hiện đại khác. Điều này có thể làm cho mã VBScript và Windows Script không tương thích với các trang web mới.</t>
+  </si>
+  <si>
+    <t>Khả năng tương thích với trình duyệt khác: VBScript và Windows Script chủ yếu được thiết kế cho IE, không phải là một giải pháp chung cho việc tự động hóa trình duyệt, đặc biệt khi bạn cần tự động hóa trình duyệt khác như Chrome hoặc Firefox.</t>
+  </si>
+  <si>
+    <t>Khả năng mở rộng hạn chế: VBScript là một ngôn ngữ đơn giản và không có các tính năng phức tạp như các ngôn ngữ lập trình hiện đại khác, giới hạn trong việc xây dựng ứng dụng phức tạp.</t>
+  </si>
+  <si>
+    <t>Khả năng hiển thị và gỡ lỗi hạn chế: Windows Script Host không cung cấp môi trường phát triển tương tự như các IDE hiện đại, dẫn đến khó khăn trong việc hiển thị mã và gỡ lỗi.</t>
+  </si>
+  <si>
+    <t>tm lại, việc sử dụng VBScript và Windows Script để tự động hóa trình duyệt IE có thể phù hợp cho các tác vụ đơn giản trong môi trường Windows truyền thống. Tuy nhiên, để thực hiện tự động hóa trên các trình duyệt khác và có tính mở rộng cao hơn, bạn nên xem xét sử dụng các ngôn ngữ lập trình hiện đại hơn và các công cụ như Selenium WebDriver.</t>
   </si>
 </sst>
 </file>
@@ -448,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,44 +548,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755E0AA4-AF22-4976-875B-C1D82FD3DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66D96F-2238-43C6-8763-AA16A6D41A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>uu diem</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>tm lại, việc sử dụng VBScript và Windows Script để tự động hóa trình duyệt IE có thể phù hợp cho các tác vụ đơn giản trong môi trường Windows truyền thống. Tuy nhiên, để thực hiện tự động hóa trên các trình duyệt khác và có tính mở rộng cao hơn, bạn nên xem xét sử dụng các ngôn ngữ lập trình hiện đại hơn và các công cụ như Selenium WebDriver.</t>
+  </si>
+  <si>
+    <t>Khi tự động hóa trình duyệt Internet Explorer (IE) bằng VBScript và Windows Script, bạn có thể gặp phải một số vấn đề sau:</t>
+  </si>
+  <si>
+    <t>Khả năng tương thích: IE không còn là trình duyệt phát triển chính thống, và không hỗ trợ nhiều tính năng và tiêu chuẩn web hiện đại. Điều này có thể làm cho các kịch bản tự động hóa trở nên khó khăn vì trang web có thể không hoạt động đúng cách trên IE.</t>
+  </si>
+  <si>
+    <t>Bảo mật: IE đã gặp nhiều vấn đề bảo mật trong quá khứ và vẫn có thể bị mục tiêu của các cuộc tấn công. Sử dụng IE trong kịch bản tự động hóa có thể đặt dự án của bạn vào nguy cơ bảo mật.</t>
+  </si>
+  <si>
+    <t>Khả năng thất bại: Các thay đổi không kiểm soát trong trình duyệt, cập nhật bất ngờ hoặc tương tác không mong muốn có thể dẫn đến việc mã tự động hóa không hoạt động.</t>
+  </si>
+  <si>
+    <t>Khả năng gỡ lỗi: Gỡ lỗi VBScript và Windows Script có thể khó khăn hơn so với các ngôn ngữ lập trình hiện đại khác, đặc biệt khi bạn cần theo dõi các vấn đề trong tương tác với trình duyệt.</t>
+  </si>
+  <si>
+    <t>Hiệu suất kém: IE thường chạy chậm hơn so với các trình duyệt hiện đại khác, điều này có thể làm cho tự động hóa chậm và không hiệu quả.</t>
+  </si>
+  <si>
+    <t>Khả năng mở rộng hạn chế: VBScript không phải là một ngôn ngữ lập trình mạnh mẽ như Python hoặc JavaScript, điều này có thể giới hạn khả năng xây dựng các kịch bản tự động hóa phức tạp.</t>
+  </si>
+  <si>
+    <t>Khả năng tương thích với các trình duyệt khác: VBScript thường được thiết kế cho IE và có thể không hoạt động tốt với các trình duyệt khác như Chrome, Firefox hoặc Edge.</t>
+  </si>
+  <si>
+    <t>Khả năng tương thích đa nền tảng: VBScript và Windows Script thường chỉ hỗ trợ trên Windows, do đó, không phù hợp cho các dự án đa nền tảng.</t>
+  </si>
+  <si>
+    <t>Tóm lại, việc tự động hóa trình duyệt IE bằng VBScript và Windows Script có thể đối mặt với nhiều vấn đề về tương thích, hiệu suất và bảo mật. Để thực hiện tự động hóa hiệu quả hơn, bạn nên xem xét sử dụng các công cụ hiện đại hơn như Selenium WebDriver và các ngôn ngữ lập trình như Python, JavaScript hoặc C#.</t>
   </si>
 </sst>
 </file>
@@ -478,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D39"/>
+  <dimension ref="A2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,29 +646,79 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66D96F-2238-43C6-8763-AA16A6D41A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A927A-F41B-438F-AB98-54FD97F380DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>uu diem</t>
   </si>
@@ -123,34 +123,43 @@
     <t>tm lại, việc sử dụng VBScript và Windows Script để tự động hóa trình duyệt IE có thể phù hợp cho các tác vụ đơn giản trong môi trường Windows truyền thống. Tuy nhiên, để thực hiện tự động hóa trên các trình duyệt khác và có tính mở rộng cao hơn, bạn nên xem xét sử dụng các ngôn ngữ lập trình hiện đại hơn và các công cụ như Selenium WebDriver.</t>
   </si>
   <si>
-    <t>Khi tự động hóa trình duyệt Internet Explorer (IE) bằng VBScript và Windows Script, bạn có thể gặp phải một số vấn đề sau:</t>
-  </si>
-  <si>
-    <t>Khả năng tương thích: IE không còn là trình duyệt phát triển chính thống, và không hỗ trợ nhiều tính năng và tiêu chuẩn web hiện đại. Điều này có thể làm cho các kịch bản tự động hóa trở nên khó khăn vì trang web có thể không hoạt động đúng cách trên IE.</t>
-  </si>
-  <si>
-    <t>Bảo mật: IE đã gặp nhiều vấn đề bảo mật trong quá khứ và vẫn có thể bị mục tiêu của các cuộc tấn công. Sử dụng IE trong kịch bản tự động hóa có thể đặt dự án của bạn vào nguy cơ bảo mật.</t>
-  </si>
-  <si>
-    <t>Khả năng thất bại: Các thay đổi không kiểm soát trong trình duyệt, cập nhật bất ngờ hoặc tương tác không mong muốn có thể dẫn đến việc mã tự động hóa không hoạt động.</t>
-  </si>
-  <si>
-    <t>Khả năng gỡ lỗi: Gỡ lỗi VBScript và Windows Script có thể khó khăn hơn so với các ngôn ngữ lập trình hiện đại khác, đặc biệt khi bạn cần theo dõi các vấn đề trong tương tác với trình duyệt.</t>
-  </si>
-  <si>
-    <t>Hiệu suất kém: IE thường chạy chậm hơn so với các trình duyệt hiện đại khác, điều này có thể làm cho tự động hóa chậm và không hiệu quả.</t>
-  </si>
-  <si>
-    <t>Khả năng mở rộng hạn chế: VBScript không phải là một ngôn ngữ lập trình mạnh mẽ như Python hoặc JavaScript, điều này có thể giới hạn khả năng xây dựng các kịch bản tự động hóa phức tạp.</t>
-  </si>
-  <si>
-    <t>Khả năng tương thích với các trình duyệt khác: VBScript thường được thiết kế cho IE và có thể không hoạt động tốt với các trình duyệt khác như Chrome, Firefox hoặc Edge.</t>
-  </si>
-  <si>
-    <t>Khả năng tương thích đa nền tảng: VBScript và Windows Script thường chỉ hỗ trợ trên Windows, do đó, không phù hợp cho các dự án đa nền tảng.</t>
-  </si>
-  <si>
-    <t>Tóm lại, việc tự động hóa trình duyệt IE bằng VBScript và Windows Script có thể đối mặt với nhiều vấn đề về tương thích, hiệu suất và bảo mật. Để thực hiện tự động hóa hiệu quả hơn, bạn nên xem xét sử dụng các công cụ hiện đại hơn như Selenium WebDriver và các ngôn ngữ lập trình như Python, JavaScript hoặc C#.</t>
+    <t>Khi tự động hóa trình duyệt Internet Explorer (IE) trong môi trường Windows Server 2019 Datacenter, có những ưu điểm và nhược điểm cần xem xét:</t>
+  </si>
+  <si>
+    <t>Ưu điểm:</t>
+  </si>
+  <si>
+    <t>Nhược điểm:</t>
+  </si>
+  <si>
+    <t>Tóm lại, tự động hóa trình duyệt IE trong môi trường Windows Server 2019 Datacenter có thể mang lại lợi ích về quản lý, hiệu suất và tích hợp hệ thống. Tuy nhiên, cần xem xét cẩn thận về tương thích và bảo mật, và xem xét việc sử dụng các công cụ tự động hóa hiện đại hơn để đảm bảo tính hiệu quả và bảo mật của quá trình tự động hóa.</t>
+  </si>
+  <si>
+    <t>Quản lý tập trung: Môi trường Windows Server 2019 Datacenter thường được sử dụng trong các hệ thống doanh nghiệp lớn, có khả năng quản lý tập trung cao hơn cho việc triển khai và duy trì các kịch bản tự động hóa.</t>
+  </si>
+  <si>
+    <t>Hỗ trợ cao cấp: Windows Server 2019 Datacenter cung cấp nhiều tính năng và dịch vụ cao cấp, giúp cho việc triển khai và quản lý các ứng dụng tự động hóa trở nên hiệu quả hơn.</t>
+  </si>
+  <si>
+    <t>Hiệu suất: Môi trường máy chủ thường có khả năng xử lý và hiệu suất cao hơn so với máy tính cá nhân, giúp tự động hóa trình duyệt IE chạy nhanh hơn và ổn định hơn.</t>
+  </si>
+  <si>
+    <t>Phân quyền và bảo mật: Môi trường máy chủ cung cấp khả năng phân quyền và quản lý bảo mật nâng cao, giúp đảm bảo rằng quyền truy cập và thực thi của mã tự động hóa được kiểm soát cẩn thận.</t>
+  </si>
+  <si>
+    <t>Tích hợp hệ thống: Tự động hóa trình duyệt IE trong môi trường máy chủ có thể dễ dàng tích hợp với các tác vụ hệ thống khác và quản lý toàn bộ quá trình một cách tốt hơn.</t>
+  </si>
+  <si>
+    <t>Khả năng tương thích: IE không còn là trình duyệt phát triển chính thống, và không hỗ trợ nhiều tính năng và tiêu chuẩn web hiện đại. Việc tự động hóa trình duyệt IE trong môi trường Windows Server 2019 Datacenter có thể gặp khó khăn trong việc đảm bảo tương thích.</t>
+  </si>
+  <si>
+    <t>Hiệu suất không đảm bảo: Mặc dù máy chủ có hiệu suất tốt hơn, việc tự động hóa trình duyệt IE vẫn có thể ảnh hưởng đến hiệu suất toàn hệ thống. Việc kiểm soát hiệu suất là điều cần quan tâm.</t>
+  </si>
+  <si>
+    <t>Phức tạp hóa quản lý: Trong môi trường máy chủ, việc triển khai và quản lý các kịch bản tự động hóa có thể phức tạp hơn do tính chất phức tạp của hệ thống.</t>
+  </si>
+  <si>
+    <t>Khả năng gỡ lỗi: Môi trường máy chủ có thể không cung cấp các công cụ gỡ lỗi và môi trường phát triển tích hợp mạnh mẽ như máy tính cá nhân.</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D54"/>
+  <dimension ref="A2:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,54 +680,69 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A927A-F41B-438F-AB98-54FD97F380DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92555123-A46D-48C6-A4FA-31C164949C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>uu diem</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>Khả năng gỡ lỗi: Môi trường máy chủ có thể không cung cấp các công cụ gỡ lỗi và môi trường phát triển tích hợp mạnh mẽ như máy tính cá nhân.</t>
+  </si>
+  <si>
+    <t>Dưới đây là một số công cụ tự động hóa hiện đại mà bạn có thể sử dụng thay thế cho tự động hóa trình duyệt IE bằng VBScript và Windows Script:</t>
+  </si>
+  <si>
+    <t>Selenium WebDriver: Selenium là một công cụ tự động hóa trình duyệt mạnh mẽ và phổ biến. WebDriver cho phép bạn kiểm soát các trình duyệt hiện đại như Chrome, Firefox, Edge, và Safari thông qua mã lập trình trong nhiều ngôn ngữ như Java, Python, C#, và JavaScript. Selenium cung cấp các API mạnh mẽ để tương tác với các phần tử trên trang web, thao tác trình duyệt và thực hiện kiểm thử tự động.</t>
+  </si>
+  <si>
+    <t>Cypress: Cypress là một công cụ kiểm thử tự động dành riêng cho việc kiểm thử trình duyệt. Nó hỗ trợ thực hiện các thao tác tương tác trên trang web và cung cấp các tính năng hiển thị và gỡ lỗi mạnh mẽ.</t>
+  </si>
+  <si>
+    <t>Playwright: Playwright là một thư viện kiểm thử và tự động hóa trình duyệt được phát triển bởi Microsoft. Nó hỗ trợ kiểm thử trình duyệt Chromium, Firefox và WebKit. Playwright có khả năng xử lý các tác vụ phức tạp như kiểm thử đa trình duyệt cùng một lúc và kiểm thử trình duyệt trong các môi trường đa nền tảng.</t>
+  </si>
+  <si>
+    <t>TestCafe: TestCafe là một công cụ tự động hóa kiểm thử trình duyệt hoàn toàn dựa trên JavaScript. Nó cho phép kiểm thử trên các trình duyệt hiện đại như Chrome, Firefox, Edge và Safari.</t>
+  </si>
+  <si>
+    <t>Robot Framework: Robot Framework là một framework kiểm thử và tự động hóa linh hoạt hỗ trợ nhiều ngôn ngữ lập trình. Nó cung cấp các thư viện mở rộng cho việc tự động hóa trình duyệt và kiểm thử ứng dụng.</t>
+  </si>
+  <si>
+    <t>Những công cụ này cung cấp tính năng mạnh mẽ hơn và khả năng tương thích tốt hơn với các trình duyệt hiện đại và các tiêu chuẩn web mới. Trước khi lựa chọn công cụ, hãy cân nhắc yêu cầu cụ thể của dự án và khả năng sử dụng của bạn để đảm bảo rằng công cụ được chọn phù hợp nhất.</t>
   </si>
 </sst>
 </file>
@@ -517,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D59"/>
+  <dimension ref="A2:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +766,41 @@
         <v>32</v>
       </c>
     </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92555123-A46D-48C6-A4FA-31C164949C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA2D70-B13E-4386-BD5D-3F0110B36571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>uu diem</t>
   </si>
@@ -162,25 +162,67 @@
     <t>Khả năng gỡ lỗi: Môi trường máy chủ có thể không cung cấp các công cụ gỡ lỗi và môi trường phát triển tích hợp mạnh mẽ như máy tính cá nhân.</t>
   </si>
   <si>
-    <t>Dưới đây là một số công cụ tự động hóa hiện đại mà bạn có thể sử dụng thay thế cho tự động hóa trình duyệt IE bằng VBScript và Windows Script:</t>
-  </si>
-  <si>
-    <t>Selenium WebDriver: Selenium là một công cụ tự động hóa trình duyệt mạnh mẽ và phổ biến. WebDriver cho phép bạn kiểm soát các trình duyệt hiện đại như Chrome, Firefox, Edge, và Safari thông qua mã lập trình trong nhiều ngôn ngữ như Java, Python, C#, và JavaScript. Selenium cung cấp các API mạnh mẽ để tương tác với các phần tử trên trang web, thao tác trình duyệt và thực hiện kiểm thử tự động.</t>
-  </si>
-  <si>
-    <t>Cypress: Cypress là một công cụ kiểm thử tự động dành riêng cho việc kiểm thử trình duyệt. Nó hỗ trợ thực hiện các thao tác tương tác trên trang web và cung cấp các tính năng hiển thị và gỡ lỗi mạnh mẽ.</t>
-  </si>
-  <si>
-    <t>Playwright: Playwright là một thư viện kiểm thử và tự động hóa trình duyệt được phát triển bởi Microsoft. Nó hỗ trợ kiểm thử trình duyệt Chromium, Firefox và WebKit. Playwright có khả năng xử lý các tác vụ phức tạp như kiểm thử đa trình duyệt cùng một lúc và kiểm thử trình duyệt trong các môi trường đa nền tảng.</t>
-  </si>
-  <si>
-    <t>TestCafe: TestCafe là một công cụ tự động hóa kiểm thử trình duyệt hoàn toàn dựa trên JavaScript. Nó cho phép kiểm thử trên các trình duyệt hiện đại như Chrome, Firefox, Edge và Safari.</t>
-  </si>
-  <si>
-    <t>Robot Framework: Robot Framework là một framework kiểm thử và tự động hóa linh hoạt hỗ trợ nhiều ngôn ngữ lập trình. Nó cung cấp các thư viện mở rộng cho việc tự động hóa trình duyệt và kiểm thử ứng dụng.</t>
-  </si>
-  <si>
-    <t>Những công cụ này cung cấp tính năng mạnh mẽ hơn và khả năng tương thích tốt hơn với các trình duyệt hiện đại và các tiêu chuẩn web mới. Trước khi lựa chọn công cụ, hãy cân nhắc yêu cầu cụ thể của dự án và khả năng sử dụng của bạn để đảm bảo rằng công cụ được chọn phù hợp nhất.</t>
+    <t>Khi làm việc với đối tượng IE (Internet Explorer) trong VBScript, có một số vấn đề mà bạn có thể gặp phải. Dưới đây là một số vấn đề thường gặp và cách giải quyết chúng:</t>
+  </si>
+  <si>
+    <t>Phiên bản IE không tương thích: Mỗi phiên bản của Internet Explorer có thể hỗ trợ các tính năng khác nhau, và mã của bạn có thể không hoạt động đúng trên tất cả các phiên bản. Hãy đảm bảo rằng mã của bạn được thử nghiệm trên các phiên bản khác nhau của IE để đảm bảo tính tương thích.</t>
+  </si>
+  <si>
+    <t>Phạm vi trình duyệt đã đóng hoặc bị che giấu: Khi bạn cố gắng tương tác với một trình duyệt IE đã đóng hoặc bị che giấu, bạn sẽ gặp lỗi. Đảm bảo rằng bạn kiểm tra trước khi thao tác để tránh lỗi này.</t>
+  </si>
+  <si>
+    <t>Chờ đợi tải trang hoàn tất: Trang web có thể cần một thời gian để tải hoàn tất. Bạn cần thêm các cơ chế chờ, chẳng hạn như sử dụng hàm Sleep, để đảm bảo rằng bạn thực hiện thao tác chỉ sau khi trang web đã tải xong.</t>
+  </si>
+  <si>
+    <t>Xử lý lỗi: Việc tương tác với trình duyệt có thể dẫn đến các tình huống lỗi, chẳng hạn như các yếu tố không tìm thấy hoặc lỗi JavaScript. Hãy thêm xử lý lỗi vào mã của bạn để tìm hiểu về các vấn đề xảy ra và làm cho mã của bạn linh hoạt hơn.</t>
+  </si>
+  <si>
+    <t>Quyền truy cập và Bảo mật: Nếu mã VBScript của bạn chạy trong môi trường có giới hạn quyền truy cập hoặc các chính sách bảo mật, bạn có thể gặp khó khăn khi cố gắng tương tác với trình duyệt IE. Đảm bảo rằng bạn có đủ quyền truy cập và các cài đặt bảo mật phù hợp.</t>
+  </si>
+  <si>
+    <t>Cơ chế tương tác chính xác: Để tương tác với trang web, bạn cần xác định các yếu tố HTML bằng cách sử dụng các phương thức như getElementById, getElementsByClassName, querySelector, và querySelectorAll. Đảm bảo rằng bạn sử dụng cơ chế tương tác chính xác để tránh vấn đề không mong muốn.</t>
+  </si>
+  <si>
+    <t>Thời gian chạy chậm: VBScript không phải là ngôn ngữ lập trình nhanh nhất, vì vậy khi bạn thực hiện các tác vụ phức tạp, mã của bạn có thể chạy chậm. Cân nhắc việc sử dụng các ngôn ngữ lập trình khác hoặc tối ưu mã của bạn để cải thiện hiệu suất.</t>
+  </si>
+  <si>
+    <t>Không còn được hỗ trợ rộng rãi: VBScript đang dần bị thay thế bởi các ngôn ngữ khác trong việc làm việc với trình duyệt web và các ứng dụng liên quan. Cân nhắc sử dụng các ngôn ngữ khác như JavaScript hoặc Python để thực hiện các tác vụ tương tự.</t>
+  </si>
+  <si>
+    <t>Trong tổng quan, làm việc với đối tượng IE trong VBScript có thể gặp một số vấn đề, nhưng với kiến thức và kinh nghiệm, bạn có thể áp dụng các giải pháp để giải quyết chúng.</t>
+  </si>
+  <si>
+    <t>Dưới đây là một số giải pháp để giải quyết các vấn đề khi làm việc với đối tượng IE trong VBScript:</t>
+  </si>
+  <si>
+    <t>Tích hợp xử lý lỗi: Sử dụng các câu lệnh On Error Resume Next và Err để xử lý lỗi một cách linh hoạt. Điều này giúp tránh dừng toàn bộ chương trình khi gặp lỗi và cho phép bạn xác định và xử lý các tình huống lỗi cụ thể.</t>
+  </si>
+  <si>
+    <t>Kiểm tra trạng thái trình duyệt: Trước khi thực hiện bất kỳ tương tác nào với trình duyệt IE, hãy kiểm tra xem trình duyệt có sẵn và đã tải xong trang web hay chưa. Điều này giúp tránh các lỗi liên quan đến trình duyệt chưa sẵn sàng.</t>
+  </si>
+  <si>
+    <t>Sử dụng các hàm chờ chính xác: Thay vì sử dụng hàm Sleep, hãy sử dụng các cơ chế chờ chính xác như WaitForSingleObject, WaitFor để chờ các sự kiện cụ thể như việc tải xong trang hoặc hiển thị yếu tố cụ thể.</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa hiệu suất: Cân nhắc sử dụng các ngôn ngữ lập trình khác như JavaScript hoặc Python để làm việc với trình duyệt, vì chúng thường có hiệu suất tốt hơn và hỗ trợ các công nghệ hiện đại.</t>
+  </si>
+  <si>
+    <t>Phân tích DOM (Document Object Model) chính xác: Sử dụng các phương thức như getElementById, getElementsByClassName, querySelector, và querySelectorAll để truy cập các yếu tố trên trang web một cách chính xác và hiệu quả.</t>
+  </si>
+  <si>
+    <t>Xóa bộ nhớ và giải phóng tài nguyên: Sau khi hoàn thành tác vụ, đảm bảo rằng bạn giải phóng tài nguyên và bộ nhớ bằng cách đóng các trình duyệt, gán giá trị null cho các biến đối tượng.</t>
+  </si>
+  <si>
+    <t>Sử dụng thư viện hỗ trợ bên ngoài: Nếu gặp khó khăn trong việc làm việc trực tiếp với đối tượng IE, bạn có thể sử dụng các thư viện hỗ trợ bên ngoài như Selenium WebDriver để tương tác với trình duyệt IE một cách hiệu quả hơn.</t>
+  </si>
+  <si>
+    <t>Kiểm tra và cập nhật phiên bản IE: Đảm bảo rằng mã của bạn đã được kiểm tra trên các phiên bản khác nhau của Internet Explorer để đảm bảo tính tương thích.</t>
+  </si>
+  <si>
+    <t>Xem xét sự thay thế bởi công nghệ khác: Nếu các vấn đề liên quan đến VBScript và IE là quá khó khăn, hãy xem xét sử dụng các công nghệ khác như JavaScript và các trình duyệt hiện đại hơn.</t>
+  </si>
+  <si>
+    <t>Tổng quan, việc giải quyết các vấn đề khi làm việc với đối tượng IE trong VBScript đòi hỏi sự kiên nhẫn, kỹ năng xử lý lỗi và hiểu biết về cách làm việc với các công cụ và ngôn ngữ lập trình.</t>
   </si>
 </sst>
 </file>
@@ -538,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D70"/>
+  <dimension ref="A2:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,9 +838,79 @@
         <v>47</v>
       </c>
     </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA2D70-B13E-4386-BD5D-3F0110B36571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A606285-A0D3-4D01-9A4C-E9571501C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>uu diem</t>
   </si>
@@ -223,6 +223,27 @@
   </si>
   <si>
     <t>Tổng quan, việc giải quyết các vấn đề khi làm việc với đối tượng IE trong VBScript đòi hỏi sự kiên nhẫn, kỹ năng xử lý lỗi và hiểu biết về cách làm việc với các công cụ và ngôn ngữ lập trình.</t>
+  </si>
+  <si>
+    <t>Kiểm tra tính tương thích và phiên bản IE: Đảm bảo rằng mã của bạn được kiểm tra trên nhiều phiên bản khác nhau của Internet Explorer để đảm bảo tính tương thích. Sử dụng các tính năng và API hỗ trợ trên các phiên bản IE mà bạn đang làm việc.</t>
+  </si>
+  <si>
+    <t>Sử dụng cơ chế chờ: Để đảm bảo rằng bạn thực hiện các thao tác sau khi trang đã tải xong hoàn toàn, sử dụng cơ chế chờ như hàm Sleep hoặc sử dụng hàm ReadyState để kiểm tra trạng thái tải của trang.</t>
+  </si>
+  <si>
+    <t>Xác định yếu tố chính xác: Sử dụng các phương thức như getElementById, getElementsByClassName, querySelector, và querySelectorAll để xác định chính xác các yếu tố trên trang web. Sử dụng các thông tin như ID, tên lớp, hoặc bộ chọn CSS để tìm kiếm yếu tố mục tiêu.</t>
+  </si>
+  <si>
+    <t>Xử lý lỗi một cách tự động: Thêm cơ chế xử lý lỗi vào mã của bạn để giải quyết các tình huống không mong muốn, chẳng hạn như trình duyệt bị đóng đột ngột hoặc yếu tố không tìm thấy. Sử dụng cấu trúc On Error Resume Next và hàm Err để kiểm tra và xử lý lỗi.</t>
+  </si>
+  <si>
+    <t>Tối ưu mã và hiệu suất: Tối ưu mã của bạn để cải thiện hiệu suất bằng cách tránh sử dụng các hoạt động chậm chạp, tối ưu hóa việc truy cập yếu tố và giảm thiểu thời gian chờ đợi không cần thiết.</t>
+  </si>
+  <si>
+    <t>Sử dụng ngôn ngữ và công nghệ khác: Xem xét sử dụng các ngôn ngữ lập trình khác như JavaScript hoặc Python để làm việc với trình duyệt web. Các ngôn ngữ này có hỗ trợ tốt hơn cho việc tương tác với trình duyệt và có nhiều thư viện và công cụ hỗ trợ.</t>
+  </si>
+  <si>
+    <t>Xem xét sử dụng các công cụ tự động hóa trình duyệt: Thay vì sử dụng VBScript, bạn có thể xem xét sử dụng các công cụ tự động hóa trình duyệt như Selenium WebDriver, Puppeteer, hoặc Playwright. Các công cụ này được thiết kế đặc biệt để làm việc với trình duyệt web và cung cấp nhiều tính năng và linh hoạt hơn.</t>
   </si>
 </sst>
 </file>
@@ -580,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D88"/>
+  <dimension ref="A2:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +934,41 @@
         <v>62</v>
       </c>
     </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A606285-A0D3-4D01-9A4C-E9571501C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77568D2-6709-4481-8321-C5CBEAD8C54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>uu diem</t>
   </si>
@@ -244,6 +244,57 @@
   </si>
   <si>
     <t>Xem xét sử dụng các công cụ tự động hóa trình duyệt: Thay vì sử dụng VBScript, bạn có thể xem xét sử dụng các công cụ tự động hóa trình duyệt như Selenium WebDriver, Puppeteer, hoặc Playwright. Các công cụ này được thiết kế đặc biệt để làm việc với trình duyệt web và cung cấp nhiều tính năng và linh hoạt hơn.</t>
+  </si>
+  <si>
+    <t>Khi sử dụng các thông tin như ID, tên lớp (class), hoặc bộ chọn CSS để tìm kiếm yếu tố mục tiêu trên trang web, bạn cũng có thể gặp phải một số vấn đề. Dưới đây là một số vấn đề thường gặp và cách giải quyết:</t>
+  </si>
+  <si>
+    <t>Yếu tố không tìm thấy: Có thể xảy ra tình huống yếu tố mục tiêu không tồn tại trên trang hoặc nó bị ẩn đi. Điều này có thể dẫn đến lỗi khi bạn cố gắng truy cập yếu tố đó. Đảm bảo rằng bạn đã kiểm tra lại thông tin ID, tên lớp, hoặc bộ chọn CSS và đảm bảo rằng yếu tố có thực sự hiện diện trên trang.</t>
+  </si>
+  <si>
+    <t>Trùng lặp thông tin: Có thể có nhiều yếu tố trên trang có cùng thông tin ID hoặc tên lớp. Điều này có thể gây ra sự nhầm lẫn và khiến việc xác định yếu tố chính xác trở nên khó khăn. Đảm bảo rằng thông tin bạn sử dụng để xác định yếu tố là duy nhất.</t>
+  </si>
+  <si>
+    <t>Thay đổi cấu trúc trang: Nếu cấu trúc trang web thay đổi, các yếu tố có thể di chuyển hoặc bị xóa. Điều này có thể làm hỏng mã của bạn nếu bạn đang sử dụng thông tin tĩnh như ID hoặc tên lớp để tìm kiếm yếu tố. Để giảm thiểu vấn đề này, hãy sử dụng bộ chọn CSS linh hoạt hơn, cho phép bạn tìm kiếm dựa trên cấu trúc và quan hệ của yếu tố.</t>
+  </si>
+  <si>
+    <t>Tính nhạy cảm với ngôn ngữ: Các thông tin như ID, tên lớp và bộ chọn CSS có thể bị thay đổi khi ngôn ngữ của trang web thay đổi. Ví dụ, nếu trang web được dịch sang một ngôn ngữ khác, các thông tin như tên lớp có thể thay đổi. Điều này có thể gây ra sự cố khi tìm kiếm yếu tố. Hãy xem xét sử dụng cách khác như xử lý yếu tố dựa trên văn bản hoặc cấu trúc thay vì thông tin tĩnh.</t>
+  </si>
+  <si>
+    <t>Độ tin cậy và bảo trì: Sử dụng thông tin như ID và tên lớp có thể dễ dàng thay đổi bởi các nhà phát triển hoặc trong quá trình bảo trì. Điều này có thể làm hỏng mã của bạn. Đảm bảo rằng bạn cập nhật mã của mình khi có sự thay đổi về thông tin này.</t>
+  </si>
+  <si>
+    <t>Hiệu suất: Sử dụng các thông tin như ID, tên lớp và bộ chọn CSS để tìm kiếm yếu tố có thể làm cho quá trình tìm kiếm trở nên chậm, đặc biệt trên các trang web phức tạp. Cân nhắc sử dụng cách tìm kiếm khác hoặc tối ưu hóa mã để cải thiện hiệu suất.</t>
+  </si>
+  <si>
+    <t>Tóm lại, khi sử dụng thông tin như ID, tên lớp và bộ chọn CSS để tìm kiếm yếu tố trên trang web, hãy cân nhắc các vấn đề tiềm năng và thực hiện các biện pháp đối phó tương ứng để đảm bảo tính chính xác và ổn định của mã của bạn.</t>
+  </si>
+  <si>
+    <t>Để đối phó với các vấn đề khi sử dụng thông tin như ID, tên lớp và bộ chọn CSS để tìm kiếm yếu tố trên trang web, bạn có thể áp dụng các biện pháp sau:</t>
+  </si>
+  <si>
+    <t>Tóm lại, bằng cách sử dụng các biện pháp như sử dụng bộ chọn CSS linh hoạt, sử dụng thuộc tính không thay đổi, sử dụng xPath, xử lý ngoại lệ, dự phòng thông tin, liên tục kiểm tra và cập nhật mã, cũng như tích hợp với các công cụ kiểm thử tự động, bạn có thể giải quyết các vấn đề liên quan đến việc tìm kiếm yếu tố mục tiêu trên trang web một cách hiệu quả.</t>
+  </si>
+  <si>
+    <t>Sử dụng bộ chọn CSS linh hoạt: Thay vì dựa vào thông tin tĩnh như ID hoặc tên lớp, sử dụng các bộ chọn CSS linh hoạt để xác định yếu tố dựa trên vị trí và quan hệ của nó trong cấu trúc HTML. Ví dụ: sử dụng parent &gt; child để tìm kiếm yếu tố con trực tiếp của một yếu tố cha cụ thể.</t>
+  </si>
+  <si>
+    <t>Sử dụng thuộc tính không thay đổi: Nếu yếu tố có một thuộc tính không thay đổi như văn bản hoặc giá trị của một thuộc tính khác, bạn có thể sử dụng thông tin này để xác định yếu tố. Ví dụ: sử dụng bộ chọn CSS như [data-id="unique-id"] để tìm kiếm yếu tố dựa trên một thuộc tính tùy chỉnh.</t>
+  </si>
+  <si>
+    <t>Sử dụng xPath: XPath là một ngôn ngữ truy vấn sử dụng để xác định các yếu tố trên trang web dựa trên cấu trúc HTML. Xpath cung cấp khả năng xác định yếu tố dựa trên nhiều thông tin khác nhau. Sử dụng xPath để tìm kiếm yếu tố một cách linh hoạt và chính xác.</t>
+  </si>
+  <si>
+    <t>Xử lý ngoại lệ và kiểm tra tồn tại: Trước khi truy cập yếu tố, hãy kiểm tra xem yếu tố có tồn tại trên trang hay không. Sử dụng cơ chế xử lý lỗi hoặc hàm kiểm tra sự tồn tại để tránh lỗi khi yếu tố không tìm thấy.</t>
+  </si>
+  <si>
+    <t>Dự phòng thông tin: Nếu thông tin như ID hoặc tên lớp thay đổi thường xuyên, bạn có thể dự phòng bằng cách xây dựng nhiều cách tìm kiếm khác nhau để xác định yếu tố. Điều này giúp đảm bảo rằng bạn có nhiều lựa chọn trong trường hợp thông tin thay đổi.</t>
+  </si>
+  <si>
+    <t>Liên tục kiểm tra và cập nhật mã: Theo dõi trang web để xem xét liệu có sự thay đổi về cấu trúc, thông tin, hoặc thuộc tính của các yếu tố hay không. Nếu có sự thay đổi, cập nhật mã của bạn để đảm bảo tính ổn định và chính xác.</t>
+  </si>
+  <si>
+    <t>Tích hợp với kiểm thử tự động: Sử dụng các framework kiểm thử tự động như Selenium WebDriver để tạo các kịch bản kiểm thử. Đây là các công cụ mạnh mẽ hỗ trợ việc tương tác với trình duyệt và tìm kiếm yếu tố dễ dàng hơn.</t>
   </si>
 </sst>
 </file>
@@ -601,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D97"/>
+  <dimension ref="A2:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,6 +1020,91 @@
         <v>69</v>
       </c>
     </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77568D2-6709-4481-8321-C5CBEAD8C54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6CF77-5F13-4108-B3E4-F80D9DA82274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>uu diem</t>
   </si>
@@ -295,6 +295,72 @@
   </si>
   <si>
     <t>Tích hợp với kiểm thử tự động: Sử dụng các framework kiểm thử tự động như Selenium WebDriver để tạo các kịch bản kiểm thử. Đây là các công cụ mạnh mẽ hỗ trợ việc tương tác với trình duyệt và tìm kiếm yếu tố dễ dàng hơn.</t>
+  </si>
+  <si>
+    <t>Kết hợp Python với Windows Script Host (WSH) để tự động hóa trình duyệt IE có thể là một gợi ý thú vị. Tuy nhiên, chúng ta sẽ sử dụng Python để viết mã tự động hóa và sử dụng WSH để chạy mã Python. Dưới đây là các bước mà bạn có thể thực hiện:</t>
+  </si>
+  <si>
+    <t>pythonCopy code</t>
+  </si>
+  <si>
+    <t>options = IEOptions()</t>
+  </si>
+  <si>
+    <t># Thực hiện các tác vụ tự động hóa khác tại đây</t>
+  </si>
+  <si>
+    <t>driver.quit()</t>
+  </si>
+  <si>
+    <t>vbscriptCopy code</t>
+  </si>
+  <si>
+    <t>Dim objShell</t>
+  </si>
+  <si>
+    <t>Set objShell = CreateObject("WScript.Shell")</t>
+  </si>
+  <si>
+    <t>objShell.Run "python path\to\automate_ie.py", 1, True</t>
+  </si>
+  <si>
+    <t>Set objShell = Nothing</t>
+  </si>
+  <si>
+    <t>Lưu ý rằng việc kết hợp Python với WSH có thể không phải là cách tiếp cận thông thường, và nó có thể gây ra một số khó khăn trong việc quản lý và điều hướng mã. Tuy nhiên, nếu bạn muốn sử dụng Python để viết mã tự động hóa trong môi trường Windows Script Host, đây là một trong những cách bạn có thể thử.</t>
+  </si>
+  <si>
+    <t>Viết mã tự động hóa bằng Python: Đầu tiên, bạn cần viết mã Python để tự động hóa trình duyệt IE bằng cách sử dụng thư viện Selenium WebDriver. Dưới đây là một ví dụ về việc sử dụng Python để mở trình duyệt IE và mở một trang web:</t>
+  </si>
+  <si>
+    <t>from selenium import webdriver</t>
+  </si>
+  <si>
+    <t>from selenium.webdriver.ie.options import Options as IEOptions</t>
+  </si>
+  <si>
+    <t>options.ignore_protected_mode_settings = True</t>
+  </si>
+  <si>
+    <t>driver = webdriver.Ie(executable_path='path/to/IEDriverServer.exe', options=options)</t>
+  </si>
+  <si>
+    <t>driver.get('https://www.example.com')</t>
+  </si>
+  <si>
+    <t>Tạo tệp mã Python: Bạn cần tạo một tệp văn bản (ví dụ: automate_ie.py) và chèn mã tự động hóa viết bằng Python vào tệp đó.</t>
+  </si>
+  <si>
+    <t>Tạo mã WSH để chạy tệp Python: Sau khi bạn đã có tệp mã Python, bạn có thể viết mã WSH để chạy tệp Python đó. Dưới đây là ví dụ về cách bạn có thể thực hiện điều này:</t>
+  </si>
+  <si>
+    <t>Trong mã trên, path\to\automate_ie.py là đường dẫn đến tệp mã Python bạn đã viết.</t>
+  </si>
+  <si>
+    <t>Lưu tệp mã WSH: Lưu tệp mã WSH với phần mở rộng .vbs (ví dụ: run_automate_ie.vbs).</t>
+  </si>
+  <si>
+    <t>Chạy mã WSH: Bạn có thể chạy tệp mã WSH bằng cách nhấp đôi vào nó, hoặc bạn cũng có thể chạy nó từ dòng lệnh bằng cách gõ cscript run_automate_ie.vbs.</t>
   </si>
 </sst>
 </file>
@@ -652,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D122"/>
+  <dimension ref="A2:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,6 +1171,116 @@
         <v>79</v>
       </c>
     </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6CF77-5F13-4108-B3E4-F80D9DA82274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB01DCBA-CCA3-4ECB-A3AB-D57ADF959DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15345" xr2:uid="{9F4C49EF-B1A2-4E36-8721-CFD2B27028E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>uu diem</t>
   </si>
@@ -361,6 +361,51 @@
   </si>
   <si>
     <t>Chạy mã WSH: Bạn có thể chạy tệp mã WSH bằng cách nhấp đôi vào nó, hoặc bạn cũng có thể chạy nó từ dòng lệnh bằng cách gõ cscript run_automate_ie.vbs.</t>
+  </si>
+  <si>
+    <t>Sử dụng Python cùng với Selenium là một phương pháp phổ biến để tự động hóa trình duyệt. Selenium là một thư viện mã nguồn mở được sử dụng rộng rãi để kiểm thử và tự động hóa trình duyệt web. Dưới đây là một số bước cơ bản để bắt đầu sử dụng Python với Selenium:</t>
+  </si>
+  <si>
+    <t>Cài đặt Python: Đảm bảo rằng bạn đã cài đặt Python trên máy tính của mình. Bạn có thể tải phiên bản mới nhất từ trang chính thức của Python.</t>
+  </si>
+  <si>
+    <t>Cài đặt Selenium: Bạn cần cài đặt thư viện Selenium bằng cách sử dụng pip, trình quản lý gói của Python. Mở cửa sổ dòng lệnh và chạy lệnh sau:</t>
+  </si>
+  <si>
+    <t>Copy code</t>
+  </si>
+  <si>
+    <t>pip install selenium</t>
+  </si>
+  <si>
+    <t>Tạo kịch bản tự động hóa: Bạn có thể bắt đầu viết mã Python để tự động hóa trình duyệt. Dưới đây là một ví dụ đơn giản về việc mở trình duyệt Chrome bằng Selenium:</t>
+  </si>
+  <si>
+    <t># Khởi tạo trình duyệt Chrome</t>
+  </si>
+  <si>
+    <t>driver = webdriver.Chrome()</t>
+  </si>
+  <si>
+    <t># Mở một trang web</t>
+  </si>
+  <si>
+    <t>driver.get("https://www.example.com")</t>
+  </si>
+  <si>
+    <t># Đóng trình duyệt</t>
+  </si>
+  <si>
+    <t>Xác định các phần tử trên trang: Để tương tác với các phần tử trên trang web (ví dụ: nút bấm, ô nhập liệu), bạn cần phải xác định chính xác cách truy cập chúng. Selenium cung cấp các phương pháp để tìm phần tử dựa trên id, class, xpath, CSS selector và nhiều phương pháp khác.</t>
+  </si>
+  <si>
+    <t>Thao tác với phần tử trên trang: Bạn có thể sử dụng Selenium để thực hiện các thao tác như nhập liệu, bấm nút, click vào liên kết, chờ, và nhiều hơn nữa.</t>
+  </si>
+  <si>
+    <t>Kiểm thử và gỡ lỗi: Viết các kịch bản kiểm thử tự động cần kiên nhẫn và thử nghiệm. Bạn có thể sử dụng các công cụ như print() để in ra thông tin gỡ lỗi hoặc sử dụng các công cụ gỡ lỗi tích hợp trong IDE.</t>
+  </si>
+  <si>
+    <t>Sử dụng Python với Selenium mang lại nhiều lợi ích, bao gồm tích hợp dễ dàng với ngôn ngữ lập trình mạnh mẽ, khả năng tương thích với nhiều trình duyệt, và sự phổ biến trong cộng đồng.</t>
   </si>
 </sst>
 </file>
@@ -419,6 +464,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D4FD4E-212D-4750-8F02-740CECC8C864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458825" y="8077200"/>
+          <a:ext cx="3457575" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dim objShell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Set objShell = CreateObject("WScript.Shell")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>objShell.Run "python path\to\automate_ie.py", 1, True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Set objShell = Nothing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93DFDF9-9991-466B-97E4-CA0E6E3F17B6}">
-  <dimension ref="A2:D153"/>
+  <dimension ref="A2:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,9 +1418,100 @@
         <v>97</v>
       </c>
     </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>